--- a/Project Weekly Report_Tuần 1_Nguyễn Anh Hải.xlsx
+++ b/Project Weekly Report_Tuần 1_Nguyễn Anh Hải.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -116,9 +116,6 @@
     <t>13/01/2025 - 19/01/2025</t>
   </si>
   <si>
-    <t>All team</t>
-  </si>
-  <si>
     <t>Define layout &amp; script for Hotel Booking</t>
   </si>
   <si>
@@ -126,6 +123,15 @@
   </si>
   <si>
     <t>Hotel Management System</t>
+  </si>
+  <si>
+    <t>Trung + Hà</t>
+  </si>
+  <si>
+    <t>Kiệt + Hải</t>
+  </si>
+  <si>
+    <t>Khánh</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -505,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -669,7 +675,7 @@
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -898,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10">
         <v>45779</v>
@@ -931,10 +937,10 @@
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10">
         <v>45779</v>
@@ -968,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10">
         <v>45779</v>
